--- a/src/resources/template.xlsx
+++ b/src/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokuzawk\PycharmProjects\time-recorder\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52808839-F538-403F-8D97-9514FA2843BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56A41AC-5F82-4C38-8645-B6DEA40631C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -95,15 +95,121 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>普通残業</t>
+  </si>
+  <si>
+    <t>普通残業</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深夜残業</t>
+  </si>
+  <si>
+    <t>深夜残業</t>
+    <rPh sb="0" eb="2">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控除</t>
+  </si>
+  <si>
+    <t>控除</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通勤交通</t>
+  </si>
+  <si>
+    <t>出張交通</t>
+  </si>
+  <si>
+    <t>出張宿泊</t>
+  </si>
+  <si>
+    <t>出張手当</t>
+  </si>
+  <si>
+    <t>経費</t>
+  </si>
+  <si>
+    <t>経費合計</t>
+  </si>
+  <si>
+    <t>特休</t>
+  </si>
+  <si>
+    <t>代休</t>
+  </si>
+  <si>
+    <t>欠勤</t>
+  </si>
+  <si>
+    <t>休出</t>
+  </si>
+  <si>
+    <t>法休普残</t>
+  </si>
+  <si>
+    <t>法休深残</t>
+  </si>
+  <si>
+    <t>残業合計</t>
+  </si>
+  <si>
+    <t>有休</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所定時間</t>
+  </si>
+  <si>
+    <t>所定日</t>
+  </si>
+  <si>
+    <t>総所定時間</t>
+  </si>
+  <si>
+    <t>実働日数</t>
+  </si>
+  <si>
+    <t>実働時間</t>
+  </si>
+  <si>
+    <t>客先</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[h]:mm"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,23 +225,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="HGPｺﾞｼｯｸE"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CAF50"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -172,27 +297,594 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal style="hair">
+        <color indexed="8"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal style="hair">
+        <color indexed="8"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="8"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,392 +1193,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="36" customWidth="1"/>
+    <col min="2" max="15" width="10.625" style="36" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="35">
+        <v>43891</v>
+      </c>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="51"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="51"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="10"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="52"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="33"/>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25">
+        <f>SUM(D5:D8)</f>
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E9" s="26">
+        <f>SUM(E5:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
+        <f>SUM(F5:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <f>SUM(G5:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
+        <f>SUM(J9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H33" s="6">
-        <f>SUM(H2:H32)</f>
-        <v>0</v>
-      </c>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="41"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="41"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="41"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="41"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="41"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="41"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="41"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="41"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="41"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="41"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="41"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="41"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="41"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="41"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="41"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="41"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="41"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="41"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="41"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="41"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="41"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="41"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="41"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="41"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="41"/>
+    </row>
+    <row r="42" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="41"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/resources/template.xlsx
+++ b/src/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokuzawk\PycharmProjects\time-recorder\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56A41AC-5F82-4C38-8645-B6DEA40631C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27609E7C-6D86-4604-A6A1-D1B886E845C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,9 +813,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -823,12 +820,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +870,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1195,23 +1195,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="36" customWidth="1"/>
-    <col min="2" max="15" width="10.625" style="36" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="2.75" style="35" customWidth="1"/>
+    <col min="2" max="15" width="10.625" style="35" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35">
+      <c r="B2" s="56">
         <v>43891</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1249,8 +1251,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
+    <row r="5" spans="2:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="48"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1263,8 +1265,8 @@
       <c r="N5" s="12"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="51"/>
+    <row r="6" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="48"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -1287,8 +1289,8 @@
       </c>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
+    <row r="7" spans="2:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="48"/>
       <c r="C7" s="15"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
@@ -1301,8 +1303,8 @@
       <c r="N7" s="18"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+    <row r="8" spans="2:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="49"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="32"/>
@@ -1327,611 +1329,596 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="25">
-        <f>SUM(D5:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <f>SUM(E5:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="31">
-        <f>SUM(F5:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
-        <f>SUM(G5:G8)</f>
-        <v>0</v>
-      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="27"/>
       <c r="J9" s="28"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="29">
-        <f>SUM(J9:M9)</f>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="41"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="41"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="41"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="41"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="41"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="41"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="41"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="41"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="41"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="41"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="41"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="41"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="41"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="41"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="41"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="41"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="41"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="41"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="41"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="41"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="41"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="41"/>
-    </row>
-    <row r="42" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="38"/>
+    </row>
+    <row r="28" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="38"/>
+    </row>
+    <row r="37" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="38"/>
+    </row>
+    <row r="39" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="2:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="41"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1956,11 +1943,6 @@
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
@@ -1968,6 +1950,11 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/resources/template.xlsx
+++ b/src/resources/template.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsumi/PycharmProjects/time-recorder/src/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22F5B1-791D-694B-9F0A-1B4365B78A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="勤怠" sheetId="1" r:id="rId4"/>
-    <sheet name="経費" sheetId="2" r:id="rId5"/>
+    <sheet name="勤怠" sheetId="1" r:id="rId1"/>
+    <sheet name="経費" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>作業時間報告書</t>
   </si>
@@ -161,11 +170,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot;YYYY年&quot;mm&quot;月&quot;"/>
-    <numFmt numFmtId="60" formatCode="&quot;:&quot;mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;YYYY年&quot;mm&quot;月&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;:&quot;mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -174,24 +182,31 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="36"/>
       <color indexed="8"/>
       <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="BIZ UDゴシック"/>
+      <sz val="6"/>
+      <name val="BIZ UDGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,32 +522,22 @@
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -540,243 +545,302 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,7 +972,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -984,7 +1048,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1003,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,9 +1318,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1271,7 +1341,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1279,7 +1349,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1298,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1376,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,7 +1550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1506,7 +1576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1532,7 +1602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1545,9 +1615,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1561,7 +1637,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1580,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1610,7 +1686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,7 +1712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1662,7 +1738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1688,7 +1764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1714,7 +1790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1740,7 +1816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1766,7 +1842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1792,7 +1868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1818,7 +1894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1831,54 +1907,62 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.44531" style="1" customWidth="1"/>
-    <col min="2" max="15" width="11.7344" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.44531" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5781" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
+    <col min="2" max="15" width="11.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" ht="38" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="3">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="38" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -1894,29 +1978,29 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s" s="4">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
@@ -1924,157 +2008,157 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="5">
         <v>43891</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" t="s" s="8">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" ht="25.5" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" t="s" s="8">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" t="s" s="8">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" ht="25.5" customHeight="1">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="25.5" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s" s="16">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s" s="16">
+      <c r="D10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s" s="16">
+      <c r="E10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s" s="16">
+      <c r="F10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s" s="17">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="14"/>
-      <c r="J10" t="s" s="15">
+      <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s" s="16">
+      <c r="K10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L10" t="s" s="16">
+      <c r="L10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M10" t="s" s="16">
+      <c r="M10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N10" t="s" s="16">
+      <c r="N10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O10" t="s" s="17">
+      <c r="O10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
+    <row r="11" spans="1:16" ht="25.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -2092,7 +2176,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
+    <row r="12" spans="1:16" ht="25.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -2102,25 +2186,25 @@
       <c r="G12" s="29"/>
       <c r="H12" s="18"/>
       <c r="I12" s="14"/>
-      <c r="J12" t="s" s="15">
+      <c r="J12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s" s="16">
+      <c r="K12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L12" t="s" s="16">
+      <c r="L12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s" s="16">
+      <c r="M12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N12" t="s" s="16">
+      <c r="N12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" ht="25.5" customHeight="1">
+    <row r="13" spans="1:16" ht="25.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="26"/>
       <c r="C13" s="31"/>
@@ -2138,7 +2222,7 @@
       <c r="O13" s="30"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
+    <row r="14" spans="1:16" ht="25.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -2148,29 +2232,29 @@
       <c r="G14" s="35"/>
       <c r="H14" s="18"/>
       <c r="I14" s="14"/>
-      <c r="J14" t="s" s="15">
+      <c r="J14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K14" t="s" s="16">
+      <c r="K14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L14" t="s" s="16">
+      <c r="L14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M14" t="s" s="16">
+      <c r="M14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N14" t="s" s="16">
+      <c r="N14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O14" t="s" s="17">
+      <c r="O14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" ht="25.5" customHeight="1">
+    <row r="15" spans="1:16" ht="25.5" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" t="s" s="15">
+      <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="24"/>
@@ -2188,8 +2272,8 @@
       <c r="O15" s="37"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A16" s="1"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -2204,51 +2288,51 @@
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="25.5" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" t="s" s="15">
+      <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="16">
+      <c r="C17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="16">
+      <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s" s="16">
+      <c r="E17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s" s="16">
+      <c r="F17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s" s="16">
+      <c r="G17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s" s="16">
+      <c r="H17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I17" t="s" s="16">
+      <c r="I17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J17" t="s" s="16">
+      <c r="J17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K17" t="s" s="16">
+      <c r="K17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L17" t="s" s="16">
+      <c r="L17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M17" t="s" s="16">
+      <c r="M17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
+    <row r="18" spans="1:16" ht="25.5" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
       <c r="C18" s="21"/>
@@ -2261,12 +2345,12 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
+    <row r="19" spans="1:16" ht="25.5" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="26"/>
       <c r="C19" s="28"/>
@@ -2279,12 +2363,12 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" ht="25.5" customHeight="1">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="26"/>
       <c r="C20" s="28"/>
@@ -2297,12 +2381,12 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="26"/>
       <c r="C21" s="28"/>
@@ -2315,12 +2399,12 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="28"/>
@@ -2333,12 +2417,12 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" ht="25.5" customHeight="1">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="28"/>
@@ -2351,12 +2435,12 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="18"/>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="28"/>
@@ -2369,12 +2453,12 @@
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
       <c r="P24" s="18"/>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="28"/>
@@ -2387,12 +2471,12 @@
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
       <c r="C26" s="28"/>
@@ -2405,12 +2489,12 @@
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="45"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
       <c r="C27" s="28"/>
@@ -2423,12 +2507,12 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" ht="25.5" customHeight="1">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="26"/>
       <c r="C28" s="28"/>
@@ -2441,12 +2525,12 @@
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="45"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="26"/>
       <c r="C29" s="28"/>
@@ -2459,12 +2543,12 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="45"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" ht="25.5" customHeight="1">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="26"/>
       <c r="C30" s="28"/>
@@ -2477,12 +2561,12 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="45"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="26"/>
       <c r="C31" s="28"/>
@@ -2495,12 +2579,12 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="45"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="26"/>
       <c r="C32" s="28"/>
@@ -2513,12 +2597,12 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="45"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" ht="25.5" customHeight="1">
+    <row r="33" spans="1:16" ht="25.5" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="26"/>
       <c r="C33" s="28"/>
@@ -2531,12 +2615,12 @@
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="45"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
+    <row r="34" spans="1:16" ht="25.5" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="26"/>
       <c r="C34" s="28"/>
@@ -2549,12 +2633,12 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" ht="25.5" customHeight="1">
+    <row r="35" spans="1:16" ht="25.5" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="26"/>
       <c r="C35" s="28"/>
@@ -2567,12 +2651,12 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="45"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
+    <row r="36" spans="1:16" ht="25.5" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="26"/>
       <c r="C36" s="28"/>
@@ -2585,12 +2669,12 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="43"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="45"/>
       <c r="P36" s="18"/>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
+    <row r="37" spans="1:16" ht="25.5" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="26"/>
       <c r="C37" s="28"/>
@@ -2603,12 +2687,12 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="43"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="45"/>
       <c r="P37" s="18"/>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
+    <row r="38" spans="1:16" ht="25.5" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="26"/>
       <c r="C38" s="28"/>
@@ -2621,12 +2705,12 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="43"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="18"/>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
+    <row r="39" spans="1:16" ht="25.5" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="26"/>
       <c r="C39" s="28"/>
@@ -2639,12 +2723,12 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" ht="25.5" customHeight="1">
+    <row r="40" spans="1:16" ht="25.5" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="26"/>
       <c r="C40" s="28"/>
@@ -2657,12 +2741,12 @@
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="43"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="45"/>
       <c r="P40" s="18"/>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
+    <row r="41" spans="1:16" ht="25.5" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="26"/>
       <c r="C41" s="28"/>
@@ -2675,12 +2759,12 @@
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="43"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="18"/>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
+    <row r="42" spans="1:16" ht="25.5" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="26"/>
       <c r="C42" s="28"/>
@@ -2693,12 +2777,12 @@
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="43"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="45"/>
       <c r="P42" s="18"/>
     </row>
-    <row r="43" ht="25.5" customHeight="1">
+    <row r="43" spans="1:16" ht="25.5" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="26"/>
       <c r="C43" s="28"/>
@@ -2711,12 +2795,12 @@
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="43"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="45"/>
       <c r="P43" s="18"/>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
+    <row r="44" spans="1:16" ht="25.5" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="26"/>
       <c r="C44" s="28"/>
@@ -2729,12 +2813,12 @@
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="43"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" ht="25.5" customHeight="1">
+    <row r="45" spans="1:16" ht="25.5" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="26"/>
       <c r="C45" s="28"/>
@@ -2747,12 +2831,12 @@
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="43"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
       <c r="P45" s="18"/>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
+    <row r="46" spans="1:16" ht="25.5" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="26"/>
       <c r="C46" s="28"/>
@@ -2765,12 +2849,12 @@
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="43"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="18"/>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
+    <row r="47" spans="1:16" ht="25.5" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="26"/>
       <c r="C47" s="28"/>
@@ -2783,12 +2867,12 @@
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="43"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
       <c r="P47" s="18"/>
     </row>
-    <row r="48" ht="25.5" customHeight="1">
+    <row r="48" spans="1:16" ht="25.5" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -2801,182 +2885,150 @@
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="45"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="47"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s" s="46">
+    <row r="49" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" ht="25.5" customHeight="1">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="25.5" customHeight="1">
       <c r="A50" s="14"/>
-      <c r="B50" t="s" s="47">
+      <c r="B50" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" t="s" s="47">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="N50" t="s" s="47">
+      <c r="M50" s="49"/>
+      <c r="N50" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="47"/>
+      <c r="O50" s="49"/>
       <c r="P50" s="18"/>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
+    <row r="51" spans="1:16" ht="25.5" customHeight="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" ht="25.5" customHeight="1">
+    <row r="52" spans="1:16" ht="25.5" customHeight="1">
       <c r="A52" s="14"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
       <c r="P52" s="18"/>
     </row>
-    <row r="53" ht="25.5" customHeight="1">
+    <row r="53" spans="1:16" ht="25.5" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
+    <row r="54" spans="1:16" ht="25.5" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
       <c r="P54" s="18"/>
     </row>
-    <row r="55" ht="25.5" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="2"/>
+    <row r="55" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="B51:K54"/>
+    <mergeCell ref="L51:M54"/>
+    <mergeCell ref="N51:O54"/>
     <mergeCell ref="M46:O46"/>
     <mergeCell ref="M47:O47"/>
     <mergeCell ref="M48:O48"/>
@@ -2984,12 +3036,45 @@
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="B51:K54"/>
-    <mergeCell ref="L51:M54"/>
-    <mergeCell ref="N51:O54"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
-  <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup scale="52" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;11&amp;K0000001/2</oddFooter>
   </headerFooter>
@@ -2997,43 +3082,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.44531" style="52" customWidth="1"/>
-    <col min="2" max="15" width="11.7344" style="52" customWidth="1"/>
-    <col min="16" max="16" width="4.44531" style="52" customWidth="1"/>
-    <col min="17" max="16384" width="11.5781" style="52" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
+    <col min="2" max="15" width="11.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" ht="38.55" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="3">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="3"/>
@@ -3049,29 +3135,29 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s" s="4">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
@@ -3079,98 +3165,98 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="5">
         <v>43891</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" t="s" s="8">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" ht="25.5" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" t="s" s="8">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" t="s" s="8">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -3185,874 +3271,1011 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" ht="25.5" customHeight="1">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="25.5" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="16">
+      <c r="C10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" t="s" s="16">
+      <c r="D10" s="40"/>
+      <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s" s="16">
+      <c r="F10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s" s="16">
+      <c r="G10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s" s="16">
+      <c r="H10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s" s="16">
+      <c r="I10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" t="s" s="16">
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" t="s" s="16">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="17"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
+    <row r="11" spans="1:16" ht="25.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
+    <row r="12" spans="1:16" ht="25.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="60"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" ht="25.5" customHeight="1">
+    <row r="13" spans="1:16" ht="25.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="60"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
+    <row r="14" spans="1:16" ht="25.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="59"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="60"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="61"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" ht="25.5" customHeight="1">
+    <row r="15" spans="1:16" ht="25.5" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="59"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="60"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
+    <row r="16" spans="1:16" ht="25.5" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="59"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="60"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
+    <row r="17" spans="1:16" ht="25.5" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="59"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="60"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
+    <row r="18" spans="1:16" ht="25.5" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="59"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
+    <row r="19" spans="1:16" ht="25.5" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" ht="25.5" customHeight="1">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="59"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="60"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" ht="25.5" customHeight="1">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="60"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="18"/>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="59"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="60"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="18"/>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="60"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="60"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="61"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="59"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="60"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" ht="25.5" customHeight="1">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="59"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="60"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="59"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="60"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" ht="25.5" customHeight="1">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="59"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="59"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" ht="25.5" customHeight="1">
+    <row r="33" spans="1:16" ht="25.5" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="59"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
+    <row r="34" spans="1:16" ht="25.5" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="59"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" ht="25.5" customHeight="1">
+    <row r="35" spans="1:16" ht="25.5" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="59"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
+    <row r="36" spans="1:16" ht="25.5" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="59"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="60"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="61"/>
       <c r="P36" s="18"/>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
+    <row r="37" spans="1:16" ht="25.5" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="59"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="60"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="18"/>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
+    <row r="38" spans="1:16" ht="25.5" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="60"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="61"/>
       <c r="P38" s="18"/>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
+    <row r="39" spans="1:16" ht="25.5" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="59"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="60"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="61"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" ht="25.5" customHeight="1">
+    <row r="40" spans="1:16" ht="25.5" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="59"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="60"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="61"/>
       <c r="P40" s="18"/>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
+    <row r="41" spans="1:16" ht="25.5" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="59"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="60"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="61"/>
       <c r="P41" s="18"/>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
+    <row r="42" spans="1:16" ht="25.5" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="59"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="60"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="61"/>
       <c r="P42" s="18"/>
     </row>
-    <row r="43" ht="25.5" customHeight="1">
+    <row r="43" spans="1:16" ht="25.5" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="59"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="60"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="61"/>
       <c r="P43" s="18"/>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
+    <row r="44" spans="1:16" ht="25.5" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="59"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="60"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="61"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" ht="25.5" customHeight="1">
+    <row r="45" spans="1:16" ht="25.5" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="59"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="60"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="61"/>
       <c r="P45" s="18"/>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
+    <row r="46" spans="1:16" ht="25.5" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="59"/>
+      <c r="G46" s="60"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="60"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="61"/>
       <c r="P46" s="18"/>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
+    <row r="47" spans="1:16" ht="25.5" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="59"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="60"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="18"/>
     </row>
-    <row r="48" ht="25.5" customHeight="1">
+    <row r="48" spans="1:16" ht="25.5" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="62"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="63"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="64"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s" s="64">
+    <row r="49" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" ht="25.5" customHeight="1">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="25.5" customHeight="1">
       <c r="A50" s="14"/>
-      <c r="B50" t="s" s="47">
+      <c r="B50" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" t="s" s="47">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="N50" t="s" s="47">
+      <c r="M50" s="49"/>
+      <c r="N50" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="47"/>
+      <c r="O50" s="49"/>
       <c r="P50" s="18"/>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
+    <row r="51" spans="1:16" ht="25.5" customHeight="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" ht="25.5" customHeight="1">
+    <row r="52" spans="1:16" ht="25.5" customHeight="1">
       <c r="A52" s="14"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
       <c r="P52" s="18"/>
     </row>
-    <row r="53" ht="25.5" customHeight="1">
+    <row r="53" spans="1:16" ht="25.5" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
+    <row r="54" spans="1:16" ht="25.5" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
       <c r="P54" s="18"/>
     </row>
-    <row r="55" ht="25.5" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="68"/>
+    <row r="55" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="B51:K54"/>
+    <mergeCell ref="L51:M54"/>
+    <mergeCell ref="N51:O54"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B49:O49"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -4065,156 +4288,20 @@
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B49:O49"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="B51:K54"/>
-    <mergeCell ref="L51:M54"/>
-    <mergeCell ref="N51:O54"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
-  <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup scale="52" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;11&amp;K0000002/2</oddFooter>
   </headerFooter>

--- a/src/resources/template.xlsx
+++ b/src/resources/template.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsumi/PycharmProjects/time-recorder/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22F5B1-791D-694B-9F0A-1B4365B78A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B8B129-6053-6240-AF9F-9AA8F639F769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤怠" sheetId="1" r:id="rId1"/>
     <sheet name="経費" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">勤怠!$A$1:$P$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">経費!$A$1:$P$55</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -223,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -512,47 +516,198 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,149 +717,32 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -712,46 +750,13 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,22 +1967,22 @@
     </row>
     <row r="2" spans="1:16" ht="38" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.5" customHeight="1">
@@ -2000,42 +2005,42 @@
     </row>
     <row r="4" spans="1:16" ht="25.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="5">
+      <c r="N4" s="53">
         <v>43891</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="53"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1">
@@ -2050,12 +2055,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1">
@@ -2070,12 +2075,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1">
@@ -2090,942 +2095,960 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="18"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="18"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="18"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="18"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="18"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="18"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="18"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="18"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="18"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="18"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="18"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="18"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="18"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="18"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="18"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="18"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="18"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="18"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="18"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="18"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="18"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="18"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="18"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="18"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="18"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="18"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="13"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="18"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="18"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="13"/>
     </row>
     <row r="47" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="18"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="18"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="13"/>
     </row>
     <row r="49" spans="1:16" ht="25.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49" t="s">
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49" t="s">
+      <c r="M50" s="45"/>
+      <c r="N50" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="49"/>
-      <c r="P50" s="18"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="13"/>
     </row>
     <row r="51" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="18"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="18"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="18"/>
-    </row>
-    <row r="54" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A54" s="14"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="18"/>
-    </row>
-    <row r="55" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="1"/>
-    </row>
+      <c r="A53" s="9"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:16" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
     <mergeCell ref="B51:K54"/>
     <mergeCell ref="L51:M54"/>
     <mergeCell ref="N51:O54"/>
@@ -3036,47 +3059,12 @@
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup scale="52" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;11&amp;K0000001/2</oddFooter>
+    <oddFooter>&amp;C&amp;K000000&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3088,7 +3076,9 @@
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
@@ -3119,22 +3109,22 @@
     </row>
     <row r="2" spans="1:16" ht="38.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="25.5" customHeight="1">
@@ -3157,42 +3147,42 @@
     </row>
     <row r="4" spans="1:16" ht="25.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="5">
+      <c r="N4" s="53">
         <v>43891</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="53"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1">
@@ -3207,12 +3197,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1">
@@ -3227,12 +3217,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1">
@@ -3247,903 +3237,1017 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="18"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="18"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="18"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="18"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="18"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="18"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="18"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="18"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="18"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="18"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="18"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="18"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="18"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="18"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="18"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="18"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="18"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="18"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="18"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="18"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="18"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="18"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="18"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="18"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="18"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="18"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="18"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="18"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="18"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="13"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="18"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="18"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="13"/>
     </row>
     <row r="47" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="18"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A48" s="9"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="13"/>
     </row>
     <row r="49" spans="1:16" ht="25.5" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49" t="s">
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49" t="s">
+      <c r="M50" s="45"/>
+      <c r="N50" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="49"/>
-      <c r="P50" s="18"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="13"/>
     </row>
     <row r="51" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="18"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="18"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="18"/>
-    </row>
-    <row r="54" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A54" s="14"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="18"/>
-    </row>
-    <row r="55" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="69"/>
-    </row>
+      <c r="A53" s="9"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:16" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="B51:K54"/>
-    <mergeCell ref="L51:M54"/>
-    <mergeCell ref="N51:O54"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="I47:K47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B49:O49"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="I44:K44"/>
     <mergeCell ref="L44:M44"/>
@@ -4156,154 +4260,23 @@
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="B51:K54"/>
+    <mergeCell ref="L51:M54"/>
+    <mergeCell ref="N51:O54"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B49:O49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup scale="52" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;11&amp;K0000002/2</oddFooter>
+    <oddFooter>&amp;C&amp;K000000&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>